--- a/Code/Results/Cases/Case_4_123/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_123/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.01777948684179</v>
+        <v>1.044646768157547</v>
       </c>
       <c r="D2">
-        <v>1.03065484362094</v>
+        <v>1.04512003900559</v>
       </c>
       <c r="E2">
-        <v>1.034679301807135</v>
+        <v>1.058249945276082</v>
       </c>
       <c r="F2">
-        <v>1.039928526224375</v>
+        <v>1.065682730545032</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049659668283244</v>
+        <v>1.042725587878068</v>
       </c>
       <c r="J2">
-        <v>1.039441116274708</v>
+        <v>1.049710736182235</v>
       </c>
       <c r="K2">
-        <v>1.041703009210123</v>
+        <v>1.047889172252157</v>
       </c>
       <c r="L2">
-        <v>1.045675749776774</v>
+        <v>1.060982693753523</v>
       </c>
       <c r="M2">
-        <v>1.050858268107434</v>
+        <v>1.068395311918511</v>
       </c>
       <c r="N2">
-        <v>1.040917241885397</v>
+        <v>1.051201445831118</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.022075643892179</v>
+        <v>1.045561053968665</v>
       </c>
       <c r="D3">
-        <v>1.03371683488805</v>
+        <v>1.045790769768434</v>
       </c>
       <c r="E3">
-        <v>1.038662413849087</v>
+        <v>1.059154746278503</v>
       </c>
       <c r="F3">
-        <v>1.044234789489264</v>
+        <v>1.06666796410231</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050938614750773</v>
+        <v>1.042951099049845</v>
       </c>
       <c r="J3">
-        <v>1.041982075237629</v>
+        <v>1.050272536288112</v>
       </c>
       <c r="K3">
-        <v>1.043935739576827</v>
+        <v>1.048371645677239</v>
       </c>
       <c r="L3">
-        <v>1.048823392980696</v>
+        <v>1.061701260486497</v>
       </c>
       <c r="M3">
-        <v>1.054331313477207</v>
+        <v>1.069195567518689</v>
       </c>
       <c r="N3">
-        <v>1.043461809301481</v>
+        <v>1.051764043757584</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.024802069458743</v>
+        <v>1.046153212857234</v>
       </c>
       <c r="D4">
-        <v>1.035662954184299</v>
+        <v>1.046225205237295</v>
       </c>
       <c r="E4">
-        <v>1.041195396929889</v>
+        <v>1.059741137817601</v>
       </c>
       <c r="F4">
-        <v>1.046973490752253</v>
+        <v>1.067306548683802</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051742157143378</v>
+        <v>1.043096130744295</v>
       </c>
       <c r="J4">
-        <v>1.043591931868444</v>
+        <v>1.050635965484435</v>
       </c>
       <c r="K4">
-        <v>1.045349199601545</v>
+        <v>1.048683583522318</v>
       </c>
       <c r="L4">
-        <v>1.050820808362673</v>
+        <v>1.062166509932743</v>
       </c>
       <c r="M4">
-        <v>1.056536208640691</v>
+        <v>1.069713837830915</v>
       </c>
       <c r="N4">
-        <v>1.045073952113365</v>
+        <v>1.052127989065053</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.025935887247104</v>
+        <v>1.046402288109707</v>
       </c>
       <c r="D5">
-        <v>1.036472926474362</v>
+        <v>1.046407942888794</v>
       </c>
       <c r="E5">
-        <v>1.04224999447464</v>
+        <v>1.059987876774173</v>
       </c>
       <c r="F5">
-        <v>1.048113797843492</v>
+        <v>1.067575264982005</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052074344964142</v>
+        <v>1.043156888640093</v>
       </c>
       <c r="J5">
-        <v>1.044260737614159</v>
+        <v>1.050788727825055</v>
       </c>
       <c r="K5">
-        <v>1.045936136707063</v>
+        <v>1.048814660211162</v>
       </c>
       <c r="L5">
-        <v>1.051651395253701</v>
+        <v>1.062362168712369</v>
       </c>
       <c r="M5">
-        <v>1.057453312919562</v>
+        <v>1.069931825469625</v>
       </c>
       <c r="N5">
-        <v>1.045743707639952</v>
+        <v>1.052280968345717</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.026125546918402</v>
+        <v>1.04644411662697</v>
       </c>
       <c r="D6">
-        <v>1.036608451965991</v>
+        <v>1.046438631224253</v>
       </c>
       <c r="E6">
-        <v>1.042426473791518</v>
+        <v>1.060029318186985</v>
       </c>
       <c r="F6">
-        <v>1.048304623758049</v>
+        <v>1.067620398562373</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052129794768359</v>
+        <v>1.043167077625985</v>
       </c>
       <c r="J6">
-        <v>1.044372571891656</v>
+        <v>1.050814375898684</v>
       </c>
       <c r="K6">
-        <v>1.046034264786153</v>
+        <v>1.048836664900334</v>
       </c>
       <c r="L6">
-        <v>1.051790327360142</v>
+        <v>1.062395024629766</v>
       </c>
       <c r="M6">
-        <v>1.057606731046527</v>
+        <v>1.069968432779185</v>
       </c>
       <c r="N6">
-        <v>1.04585570073495</v>
+        <v>1.052306652842554</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.024817267643001</v>
+        <v>1.046156540497086</v>
       </c>
       <c r="D7">
-        <v>1.035673808878125</v>
+        <v>1.04622764659176</v>
       </c>
       <c r="E7">
-        <v>1.041209528408807</v>
+        <v>1.05974443389315</v>
       </c>
       <c r="F7">
-        <v>1.046988770483493</v>
+        <v>1.067310138282614</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051746617774114</v>
+        <v>1.043096943433611</v>
       </c>
       <c r="J7">
-        <v>1.043600899525331</v>
+        <v>1.050638006795108</v>
       </c>
       <c r="K7">
-        <v>1.045357070631712</v>
+        <v>1.048685335220243</v>
       </c>
       <c r="L7">
-        <v>1.050831942195452</v>
+        <v>1.06216912406959</v>
       </c>
       <c r="M7">
-        <v>1.05654850126327</v>
+        <v>1.069716750174351</v>
       </c>
       <c r="N7">
-        <v>1.045082932505354</v>
+        <v>1.05213003327462</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.019242731385406</v>
+        <v>1.044955639740178</v>
       </c>
       <c r="D8">
-        <v>1.031697098652156</v>
+        <v>1.045346626160113</v>
       </c>
       <c r="E8">
-        <v>1.036034813685108</v>
+        <v>1.0585555346595</v>
       </c>
       <c r="F8">
-        <v>1.041393970698003</v>
+        <v>1.066015471885082</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050096947916775</v>
+        <v>1.042801984185942</v>
       </c>
       <c r="J8">
-        <v>1.040307096237306</v>
+        <v>1.049900617808875</v>
       </c>
       <c r="K8">
-        <v>1.04246417030878</v>
+        <v>1.048052278545555</v>
       </c>
       <c r="L8">
-        <v>1.046747828962125</v>
+        <v>1.061225476236725</v>
       </c>
       <c r="M8">
-        <v>1.052040973851035</v>
+        <v>1.068665667807966</v>
       </c>
       <c r="N8">
-        <v>1.041784451638855</v>
+        <v>1.051391597111448</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.008989725838622</v>
+        <v>1.042843800406059</v>
       </c>
       <c r="D9">
-        <v>1.024408307181791</v>
+        <v>1.043797495732005</v>
       </c>
       <c r="E9">
-        <v>1.026560010537201</v>
+        <v>1.056467688883447</v>
       </c>
       <c r="F9">
-        <v>1.031151346147685</v>
+        <v>1.063742382738115</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04699990823328</v>
+        <v>1.042275444148931</v>
       </c>
       <c r="J9">
-        <v>1.03422897925101</v>
+        <v>1.048600576734488</v>
       </c>
       <c r="K9">
-        <v>1.037117411165615</v>
+        <v>1.046934845139023</v>
       </c>
       <c r="L9">
-        <v>1.039236381743559</v>
+        <v>1.059564912869203</v>
       </c>
       <c r="M9">
-        <v>1.043758453014304</v>
+        <v>1.066817040105329</v>
       </c>
       <c r="N9">
-        <v>1.035697703029268</v>
+        <v>1.050089709829618</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.00183506811913</v>
+        <v>1.041438868508522</v>
       </c>
       <c r="D10">
-        <v>1.019342568389196</v>
+        <v>1.042767073296283</v>
       </c>
       <c r="E10">
-        <v>1.019979418474839</v>
+        <v>1.055080682115223</v>
       </c>
       <c r="F10">
-        <v>1.024037851909851</v>
+        <v>1.062232641172964</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044798301406531</v>
+        <v>1.041919890195743</v>
       </c>
       <c r="J10">
-        <v>1.029976067444916</v>
+        <v>1.047733494282127</v>
       </c>
       <c r="K10">
-        <v>1.033371153550062</v>
+        <v>1.046188666878364</v>
       </c>
       <c r="L10">
-        <v>1.03399707113666</v>
+        <v>1.058459464782678</v>
       </c>
       <c r="M10">
-        <v>1.037986247773073</v>
+        <v>1.065587059431108</v>
       </c>
       <c r="N10">
-        <v>1.031438751600593</v>
+        <v>1.04922139602072</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9986540014152261</v>
+        <v>1.040831234074632</v>
       </c>
       <c r="D11">
-        <v>1.017095886006072</v>
+        <v>1.042321459872372</v>
       </c>
       <c r="E11">
-        <v>1.017061437629529</v>
+        <v>1.054481270657564</v>
       </c>
       <c r="F11">
-        <v>1.020883535586213</v>
+        <v>1.061580264556375</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043810318073857</v>
+        <v>1.041764864692881</v>
       </c>
       <c r="J11">
-        <v>1.028082882905976</v>
+        <v>1.047357958464149</v>
       </c>
       <c r="K11">
-        <v>1.031702443389275</v>
+        <v>1.045865285841159</v>
       </c>
       <c r="L11">
-        <v>1.031668616606621</v>
+        <v>1.057981186580889</v>
       </c>
       <c r="M11">
-        <v>1.035422080075284</v>
+        <v>1.0650550581359</v>
       </c>
       <c r="N11">
-        <v>1.029542878522458</v>
+        <v>1.048845326898806</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9974592665897355</v>
+        <v>1.040605639425992</v>
       </c>
       <c r="D12">
-        <v>1.016252996919372</v>
+        <v>1.042156025722083</v>
       </c>
       <c r="E12">
-        <v>1.015966734691975</v>
+        <v>1.054258799996697</v>
       </c>
       <c r="F12">
-        <v>1.019700153299753</v>
+        <v>1.061338147281941</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043437927304088</v>
+        <v>1.041707121367003</v>
       </c>
       <c r="J12">
-        <v>1.027371545417776</v>
+        <v>1.047218456201542</v>
       </c>
       <c r="K12">
-        <v>1.031075301819505</v>
+        <v>1.04574512649691</v>
       </c>
       <c r="L12">
-        <v>1.030794299733071</v>
+        <v>1.057803592249406</v>
       </c>
       <c r="M12">
-        <v>1.034459417622106</v>
+        <v>1.064857538816449</v>
       </c>
       <c r="N12">
-        <v>1.028830530853432</v>
+        <v>1.048705626526984</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.997716147309041</v>
+        <v>1.040654025346233</v>
       </c>
       <c r="D13">
-        <v>1.016434184686522</v>
+        <v>1.042191507970782</v>
       </c>
       <c r="E13">
-        <v>1.016202051500977</v>
+        <v>1.054306512656142</v>
       </c>
       <c r="F13">
-        <v>1.019954533496538</v>
+        <v>1.061390072984828</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043518054555752</v>
+        <v>1.041719514735746</v>
       </c>
       <c r="J13">
-        <v>1.027524503499531</v>
+        <v>1.047248380416672</v>
       </c>
       <c r="K13">
-        <v>1.031210161794414</v>
+        <v>1.045770902934108</v>
       </c>
       <c r="L13">
-        <v>1.030982277577568</v>
+        <v>1.057841684125465</v>
       </c>
       <c r="M13">
-        <v>1.034666382453084</v>
+        <v>1.064899903304209</v>
       </c>
       <c r="N13">
-        <v>1.028983706153208</v>
+        <v>1.048735593237932</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9985555164313905</v>
+        <v>1.040812584144339</v>
       </c>
       <c r="D14">
-        <v>1.017026385588819</v>
+        <v>1.042307783260684</v>
       </c>
       <c r="E14">
-        <v>1.016971173401575</v>
+        <v>1.054462877535326</v>
       </c>
       <c r="F14">
-        <v>1.020785959658719</v>
+        <v>1.061560246888101</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043779647699917</v>
+        <v>1.041760094871338</v>
       </c>
       <c r="J14">
-        <v>1.028024251459654</v>
+        <v>1.047346427393263</v>
       </c>
       <c r="K14">
-        <v>1.031650754645026</v>
+        <v>1.045855354267669</v>
       </c>
       <c r="L14">
-        <v>1.031596540223386</v>
+        <v>1.057966505357686</v>
       </c>
       <c r="M14">
-        <v>1.035342717430248</v>
+        <v>1.065038729291339</v>
       </c>
       <c r="N14">
-        <v>1.029484163812757</v>
+        <v>1.048833779452476</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9990709169005355</v>
+        <v>1.040910291775539</v>
       </c>
       <c r="D15">
-        <v>1.01739013904397</v>
+        <v>1.042379435811599</v>
       </c>
       <c r="E15">
-        <v>1.017443602400138</v>
+        <v>1.054559242653558</v>
       </c>
       <c r="F15">
-        <v>1.021296656230069</v>
+        <v>1.061665123779914</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043940100804543</v>
+        <v>1.04178507645348</v>
       </c>
       <c r="J15">
-        <v>1.028331074776427</v>
+        <v>1.047406835872113</v>
       </c>
       <c r="K15">
-        <v>1.031921240290584</v>
+        <v>1.045907382087613</v>
       </c>
       <c r="L15">
-        <v>1.03197374510892</v>
+        <v>1.058043419756506</v>
       </c>
       <c r="M15">
-        <v>1.035758060887222</v>
+        <v>1.065124276480367</v>
       </c>
       <c r="N15">
-        <v>1.029791422853833</v>
+        <v>1.048894273718295</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.002044379256086</v>
+        <v>1.041479210265826</v>
       </c>
       <c r="D16">
-        <v>1.019490520800293</v>
+        <v>1.042796659245448</v>
       </c>
       <c r="E16">
-        <v>1.020171586076254</v>
+        <v>1.055120487885492</v>
       </c>
       <c r="F16">
-        <v>1.024245582056033</v>
+        <v>1.062275965853997</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044863123261753</v>
+        <v>1.04193015626674</v>
       </c>
       <c r="J16">
-        <v>1.030100593107982</v>
+        <v>1.047758415684998</v>
       </c>
       <c r="K16">
-        <v>1.033480893137954</v>
+        <v>1.046210122777383</v>
       </c>
       <c r="L16">
-        <v>1.03415030609668</v>
+        <v>1.058491214809391</v>
       </c>
       <c r="M16">
-        <v>1.038155017822137</v>
+        <v>1.065622379108809</v>
       </c>
       <c r="N16">
-        <v>1.031563454104385</v>
+        <v>1.049246352814841</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.003886860651565</v>
+        <v>1.041836268768814</v>
       </c>
       <c r="D17">
-        <v>1.020793534396869</v>
+        <v>1.043058525109678</v>
       </c>
       <c r="E17">
-        <v>1.0218640589999</v>
+        <v>1.055472856870542</v>
       </c>
       <c r="F17">
-        <v>1.026075113318604</v>
+        <v>1.062659493762119</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04543269035222</v>
+        <v>1.042020875373508</v>
       </c>
       <c r="J17">
-        <v>1.031196487632049</v>
+        <v>1.047978930784152</v>
       </c>
       <c r="K17">
-        <v>1.034446542525948</v>
+        <v>1.046399949491417</v>
       </c>
       <c r="L17">
-        <v>1.035499292893319</v>
+        <v>1.058772209555629</v>
       </c>
       <c r="M17">
-        <v>1.039640892614981</v>
+        <v>1.065934984148245</v>
       </c>
       <c r="N17">
-        <v>1.032660904924377</v>
+        <v>1.049467181070729</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.00495358283451</v>
+        <v>1.042044603416076</v>
       </c>
       <c r="D18">
-        <v>1.021548455648927</v>
+        <v>1.043211321580318</v>
       </c>
       <c r="E18">
-        <v>1.022844674662307</v>
+        <v>1.05567850068746</v>
       </c>
       <c r="F18">
-        <v>1.027135137770447</v>
+        <v>1.062883329402198</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045761577967652</v>
+        <v>1.042073687181805</v>
       </c>
       <c r="J18">
-        <v>1.03183074719563</v>
+        <v>1.048107545397821</v>
       </c>
       <c r="K18">
-        <v>1.035005319741735</v>
+        <v>1.046510645031145</v>
       </c>
       <c r="L18">
-        <v>1.036280395636243</v>
+        <v>1.058936146405316</v>
       </c>
       <c r="M18">
-        <v>1.040501363828278</v>
+        <v>1.066117378072728</v>
       </c>
       <c r="N18">
-        <v>1.033296065209289</v>
+        <v>1.049595978331902</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.005315975900467</v>
+        <v>1.04211565172574</v>
       </c>
       <c r="D19">
-        <v>1.021805009647892</v>
+        <v>1.043263430435792</v>
       </c>
       <c r="E19">
-        <v>1.023177939763295</v>
+        <v>1.055748639029763</v>
       </c>
       <c r="F19">
-        <v>1.027495390069592</v>
+        <v>1.062959673629375</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045873160989124</v>
+        <v>1.042091677137479</v>
       </c>
       <c r="J19">
-        <v>1.032046183202756</v>
+        <v>1.048151398251217</v>
       </c>
       <c r="K19">
-        <v>1.035195099389794</v>
+        <v>1.046548384711181</v>
       </c>
       <c r="L19">
-        <v>1.036545771084379</v>
+        <v>1.058992050937052</v>
       </c>
       <c r="M19">
-        <v>1.040793722461779</v>
+        <v>1.066179579266064</v>
       </c>
       <c r="N19">
-        <v>1.033511807160256</v>
+        <v>1.04963989346138</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.003690008482402</v>
+        <v>1.041797952681059</v>
       </c>
       <c r="D20">
-        <v>1.020654264032603</v>
+        <v>1.043030423728752</v>
       </c>
       <c r="E20">
-        <v>1.021683156547361</v>
+        <v>1.055435039320067</v>
       </c>
       <c r="F20">
-        <v>1.025879561526807</v>
+        <v>1.062618331359517</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04537192716696</v>
+        <v>1.042011152733294</v>
       </c>
       <c r="J20">
-        <v>1.031079423829631</v>
+        <v>1.047955272432938</v>
       </c>
       <c r="K20">
-        <v>1.034343402015238</v>
+        <v>1.046379585684857</v>
       </c>
       <c r="L20">
-        <v>1.035355156028093</v>
+        <v>1.058742057604971</v>
       </c>
       <c r="M20">
-        <v>1.039482118513067</v>
+        <v>1.065901438712898</v>
       </c>
       <c r="N20">
-        <v>1.032543674877932</v>
+        <v>1.049443489121943</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9983087115947926</v>
+        <v>1.04076588954453</v>
       </c>
       <c r="D21">
-        <v>1.016852231450025</v>
+        <v>1.042273540686078</v>
       </c>
       <c r="E21">
-        <v>1.016744989758293</v>
+        <v>1.054416827065979</v>
       </c>
       <c r="F21">
-        <v>1.020541454095122</v>
+        <v>1.06151012925996</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043702766051337</v>
+        <v>1.041748149443875</v>
       </c>
       <c r="J21">
-        <v>1.027877315469114</v>
+        <v>1.047317555312987</v>
       </c>
       <c r="K21">
-        <v>1.03152121539966</v>
+        <v>1.04583048658508</v>
       </c>
       <c r="L21">
-        <v>1.03141591905181</v>
+        <v>1.057929746964248</v>
       </c>
       <c r="M21">
-        <v>1.035143839722142</v>
+        <v>1.064997846013547</v>
       </c>
       <c r="N21">
-        <v>1.029337019156256</v>
+        <v>1.048804866370534</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9948488601727609</v>
+        <v>1.040117614943538</v>
       </c>
       <c r="D22">
-        <v>1.014413102900857</v>
+        <v>1.041798159544283</v>
       </c>
       <c r="E22">
-        <v>1.013577188990428</v>
+        <v>1.05377766394613</v>
       </c>
       <c r="F22">
-        <v>1.017116993528335</v>
+        <v>1.060814542189147</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042621889949307</v>
+        <v>1.041581863679684</v>
       </c>
       <c r="J22">
-        <v>1.025816818720839</v>
+        <v>1.046916530978973</v>
       </c>
       <c r="K22">
-        <v>1.029704340530062</v>
+        <v>1.045485008137071</v>
       </c>
       <c r="L22">
-        <v>1.028884393563755</v>
+        <v>1.057419359788415</v>
       </c>
       <c r="M22">
-        <v>1.03235681862332</v>
+        <v>1.064430240717779</v>
       </c>
       <c r="N22">
-        <v>1.027273596266256</v>
+        <v>1.048403272535968</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.996690470893498</v>
+        <v>1.040461218010945</v>
       </c>
       <c r="D23">
-        <v>1.015710875155875</v>
+        <v>1.042050120087814</v>
       </c>
       <c r="E23">
-        <v>1.015262658431552</v>
+        <v>1.054116398554858</v>
       </c>
       <c r="F23">
-        <v>1.018939035444176</v>
+        <v>1.061183173395749</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043197930387651</v>
+        <v>1.041670102420178</v>
       </c>
       <c r="J23">
-        <v>1.026913729715437</v>
+        <v>1.0471291275165</v>
       </c>
       <c r="K23">
-        <v>1.030671634606665</v>
+        <v>1.045668175036632</v>
       </c>
       <c r="L23">
-        <v>1.030231749636721</v>
+        <v>1.057689892613327</v>
       </c>
       <c r="M23">
-        <v>1.033840069806108</v>
+        <v>1.064731089385942</v>
       </c>
       <c r="N23">
-        <v>1.028372065000284</v>
+        <v>1.048616170984963</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.003778982073225</v>
+        <v>1.041815265860375</v>
       </c>
       <c r="D24">
-        <v>1.020717210062592</v>
+        <v>1.043043121364823</v>
       </c>
       <c r="E24">
-        <v>1.021764918859261</v>
+        <v>1.055452127094444</v>
       </c>
       <c r="F24">
-        <v>1.025967944893929</v>
+        <v>1.062636930474976</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045399393714792</v>
+        <v>1.042015546294553</v>
       </c>
       <c r="J24">
-        <v>1.031132335215704</v>
+        <v>1.047965962648657</v>
       </c>
       <c r="K24">
-        <v>1.034390020562536</v>
+        <v>1.046388787296548</v>
       </c>
       <c r="L24">
-        <v>1.035420302974784</v>
+        <v>1.058755681858256</v>
       </c>
       <c r="M24">
-        <v>1.039553880864634</v>
+        <v>1.065916596276134</v>
       </c>
       <c r="N24">
-        <v>1.032596661404242</v>
+        <v>1.049454194518994</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.011694325746729</v>
+        <v>1.043389244676843</v>
       </c>
       <c r="D25">
-        <v>1.026327701533863</v>
+        <v>1.044197578448414</v>
       </c>
       <c r="E25">
-        <v>1.029054131037749</v>
+        <v>1.057006591359434</v>
       </c>
       <c r="F25">
-        <v>1.03384748096973</v>
+        <v>1.064329040959822</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047823998610108</v>
+        <v>1.042412367831178</v>
       </c>
       <c r="J25">
-        <v>1.035834438256637</v>
+        <v>1.048936741400266</v>
       </c>
       <c r="K25">
-        <v>1.038530612887691</v>
+        <v>1.047223948306188</v>
       </c>
       <c r="L25">
-        <v>1.041217560474141</v>
+        <v>1.059993932567644</v>
       </c>
       <c r="M25">
-        <v>1.045942135960576</v>
+        <v>1.06729453053028</v>
       </c>
       <c r="N25">
-        <v>1.037305441970832</v>
+        <v>1.05042635188778</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_123/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_123/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.044646768157547</v>
+        <v>1.01777948684179</v>
       </c>
       <c r="D2">
-        <v>1.04512003900559</v>
+        <v>1.030654843620939</v>
       </c>
       <c r="E2">
-        <v>1.058249945276082</v>
+        <v>1.034679301807135</v>
       </c>
       <c r="F2">
-        <v>1.065682730545032</v>
+        <v>1.039928526224375</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042725587878068</v>
+        <v>1.049659668283244</v>
       </c>
       <c r="J2">
-        <v>1.049710736182235</v>
+        <v>1.039441116274707</v>
       </c>
       <c r="K2">
-        <v>1.047889172252157</v>
+        <v>1.041703009210123</v>
       </c>
       <c r="L2">
-        <v>1.060982693753523</v>
+        <v>1.045675749776774</v>
       </c>
       <c r="M2">
-        <v>1.068395311918511</v>
+        <v>1.050858268107435</v>
       </c>
       <c r="N2">
-        <v>1.051201445831118</v>
+        <v>1.040917241885397</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.045561053968665</v>
+        <v>1.022075643892179</v>
       </c>
       <c r="D3">
-        <v>1.045790769768434</v>
+        <v>1.033716834888049</v>
       </c>
       <c r="E3">
-        <v>1.059154746278503</v>
+        <v>1.038662413849086</v>
       </c>
       <c r="F3">
-        <v>1.06666796410231</v>
+        <v>1.044234789489263</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042951099049845</v>
+        <v>1.050938614750773</v>
       </c>
       <c r="J3">
-        <v>1.050272536288112</v>
+        <v>1.041982075237628</v>
       </c>
       <c r="K3">
-        <v>1.048371645677239</v>
+        <v>1.043935739576826</v>
       </c>
       <c r="L3">
-        <v>1.061701260486497</v>
+        <v>1.048823392980696</v>
       </c>
       <c r="M3">
-        <v>1.069195567518689</v>
+        <v>1.054331313477207</v>
       </c>
       <c r="N3">
-        <v>1.051764043757584</v>
+        <v>1.04346180930148</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.046153212857234</v>
+        <v>1.024802069458743</v>
       </c>
       <c r="D4">
-        <v>1.046225205237295</v>
+        <v>1.035662954184299</v>
       </c>
       <c r="E4">
-        <v>1.059741137817601</v>
+        <v>1.041195396929889</v>
       </c>
       <c r="F4">
-        <v>1.067306548683802</v>
+        <v>1.046973490752254</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043096130744295</v>
+        <v>1.051742157143378</v>
       </c>
       <c r="J4">
-        <v>1.050635965484435</v>
+        <v>1.043591931868445</v>
       </c>
       <c r="K4">
-        <v>1.048683583522318</v>
+        <v>1.045349199601545</v>
       </c>
       <c r="L4">
-        <v>1.062166509932743</v>
+        <v>1.050820808362674</v>
       </c>
       <c r="M4">
-        <v>1.069713837830915</v>
+        <v>1.056536208640691</v>
       </c>
       <c r="N4">
-        <v>1.052127989065053</v>
+        <v>1.045073952113366</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.046402288109707</v>
+        <v>1.025935887247104</v>
       </c>
       <c r="D5">
-        <v>1.046407942888794</v>
+        <v>1.036472926474363</v>
       </c>
       <c r="E5">
-        <v>1.059987876774173</v>
+        <v>1.04224999447464</v>
       </c>
       <c r="F5">
-        <v>1.067575264982005</v>
+        <v>1.048113797843491</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043156888640093</v>
+        <v>1.052074344964142</v>
       </c>
       <c r="J5">
-        <v>1.050788727825055</v>
+        <v>1.044260737614159</v>
       </c>
       <c r="K5">
-        <v>1.048814660211162</v>
+        <v>1.045936136707063</v>
       </c>
       <c r="L5">
-        <v>1.062362168712369</v>
+        <v>1.051651395253701</v>
       </c>
       <c r="M5">
-        <v>1.069931825469625</v>
+        <v>1.057453312919562</v>
       </c>
       <c r="N5">
-        <v>1.052280968345717</v>
+        <v>1.045743707639952</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.04644411662697</v>
+        <v>1.026125546918402</v>
       </c>
       <c r="D6">
-        <v>1.046438631224253</v>
+        <v>1.036608451965991</v>
       </c>
       <c r="E6">
-        <v>1.060029318186985</v>
+        <v>1.042426473791518</v>
       </c>
       <c r="F6">
-        <v>1.067620398562373</v>
+        <v>1.048304623758049</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043167077625985</v>
+        <v>1.052129794768359</v>
       </c>
       <c r="J6">
-        <v>1.050814375898684</v>
+        <v>1.044372571891656</v>
       </c>
       <c r="K6">
-        <v>1.048836664900334</v>
+        <v>1.046034264786153</v>
       </c>
       <c r="L6">
-        <v>1.062395024629766</v>
+        <v>1.051790327360142</v>
       </c>
       <c r="M6">
-        <v>1.069968432779185</v>
+        <v>1.057606731046527</v>
       </c>
       <c r="N6">
-        <v>1.052306652842554</v>
+        <v>1.04585570073495</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.046156540497086</v>
+        <v>1.024817267643</v>
       </c>
       <c r="D7">
-        <v>1.04622764659176</v>
+        <v>1.035673808878124</v>
       </c>
       <c r="E7">
-        <v>1.05974443389315</v>
+        <v>1.041209528408806</v>
       </c>
       <c r="F7">
-        <v>1.067310138282614</v>
+        <v>1.046988770483493</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043096943433611</v>
+        <v>1.051746617774113</v>
       </c>
       <c r="J7">
-        <v>1.050638006795108</v>
+        <v>1.043600899525331</v>
       </c>
       <c r="K7">
-        <v>1.048685335220243</v>
+        <v>1.045357070631712</v>
       </c>
       <c r="L7">
-        <v>1.06216912406959</v>
+        <v>1.050831942195451</v>
       </c>
       <c r="M7">
-        <v>1.069716750174351</v>
+        <v>1.05654850126327</v>
       </c>
       <c r="N7">
-        <v>1.05213003327462</v>
+        <v>1.045082932505353</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.044955639740178</v>
+        <v>1.019242731385407</v>
       </c>
       <c r="D8">
-        <v>1.045346626160113</v>
+        <v>1.031697098652157</v>
       </c>
       <c r="E8">
-        <v>1.0585555346595</v>
+        <v>1.036034813685109</v>
       </c>
       <c r="F8">
-        <v>1.066015471885082</v>
+        <v>1.041393970698004</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042801984185942</v>
+        <v>1.050096947916775</v>
       </c>
       <c r="J8">
-        <v>1.049900617808875</v>
+        <v>1.040307096237307</v>
       </c>
       <c r="K8">
-        <v>1.048052278545555</v>
+        <v>1.04246417030878</v>
       </c>
       <c r="L8">
-        <v>1.061225476236725</v>
+        <v>1.046747828962125</v>
       </c>
       <c r="M8">
-        <v>1.068665667807966</v>
+        <v>1.052040973851035</v>
       </c>
       <c r="N8">
-        <v>1.051391597111448</v>
+        <v>1.041784451638856</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.042843800406059</v>
+        <v>1.008989725838622</v>
       </c>
       <c r="D9">
-        <v>1.043797495732005</v>
+        <v>1.02440830718179</v>
       </c>
       <c r="E9">
-        <v>1.056467688883447</v>
+        <v>1.026560010537201</v>
       </c>
       <c r="F9">
-        <v>1.063742382738115</v>
+        <v>1.031151346147685</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042275444148931</v>
+        <v>1.04699990823328</v>
       </c>
       <c r="J9">
-        <v>1.048600576734488</v>
+        <v>1.03422897925101</v>
       </c>
       <c r="K9">
-        <v>1.046934845139023</v>
+        <v>1.037117411165615</v>
       </c>
       <c r="L9">
-        <v>1.059564912869203</v>
+        <v>1.039236381743559</v>
       </c>
       <c r="M9">
-        <v>1.066817040105329</v>
+        <v>1.043758453014304</v>
       </c>
       <c r="N9">
-        <v>1.050089709829618</v>
+        <v>1.035697703029268</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.041438868508522</v>
+        <v>1.001835068119129</v>
       </c>
       <c r="D10">
-        <v>1.042767073296283</v>
+        <v>1.019342568389196</v>
       </c>
       <c r="E10">
-        <v>1.055080682115223</v>
+        <v>1.019979418474838</v>
       </c>
       <c r="F10">
-        <v>1.062232641172964</v>
+        <v>1.024037851909851</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041919890195743</v>
+        <v>1.044798301406531</v>
       </c>
       <c r="J10">
-        <v>1.047733494282127</v>
+        <v>1.029976067444915</v>
       </c>
       <c r="K10">
-        <v>1.046188666878364</v>
+        <v>1.033371153550062</v>
       </c>
       <c r="L10">
-        <v>1.058459464782678</v>
+        <v>1.033997071136659</v>
       </c>
       <c r="M10">
-        <v>1.065587059431108</v>
+        <v>1.037986247773072</v>
       </c>
       <c r="N10">
-        <v>1.04922139602072</v>
+        <v>1.031438751600593</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.040831234074632</v>
+        <v>0.9986540014152268</v>
       </c>
       <c r="D11">
-        <v>1.042321459872372</v>
+        <v>1.017095886006073</v>
       </c>
       <c r="E11">
-        <v>1.054481270657564</v>
+        <v>1.017061437629529</v>
       </c>
       <c r="F11">
-        <v>1.061580264556375</v>
+        <v>1.020883535586214</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041764864692881</v>
+        <v>1.043810318073857</v>
       </c>
       <c r="J11">
-        <v>1.047357958464149</v>
+        <v>1.028082882905977</v>
       </c>
       <c r="K11">
-        <v>1.045865285841159</v>
+        <v>1.031702443389275</v>
       </c>
       <c r="L11">
-        <v>1.057981186580889</v>
+        <v>1.031668616606622</v>
       </c>
       <c r="M11">
-        <v>1.0650550581359</v>
+        <v>1.035422080075284</v>
       </c>
       <c r="N11">
-        <v>1.048845326898806</v>
+        <v>1.029542878522458</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.040605639425992</v>
+        <v>0.9974592665897354</v>
       </c>
       <c r="D12">
-        <v>1.042156025722083</v>
+        <v>1.016252996919372</v>
       </c>
       <c r="E12">
-        <v>1.054258799996697</v>
+        <v>1.015966734691975</v>
       </c>
       <c r="F12">
-        <v>1.061338147281941</v>
+        <v>1.019700153299753</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041707121367003</v>
+        <v>1.043437927304087</v>
       </c>
       <c r="J12">
-        <v>1.047218456201542</v>
+        <v>1.027371545417776</v>
       </c>
       <c r="K12">
-        <v>1.04574512649691</v>
+        <v>1.031075301819504</v>
       </c>
       <c r="L12">
-        <v>1.057803592249406</v>
+        <v>1.030794299733071</v>
       </c>
       <c r="M12">
-        <v>1.064857538816449</v>
+        <v>1.034459417622106</v>
       </c>
       <c r="N12">
-        <v>1.048705626526984</v>
+        <v>1.028830530853432</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.040654025346233</v>
+        <v>0.9977161473090409</v>
       </c>
       <c r="D13">
-        <v>1.042191507970782</v>
+        <v>1.016434184686522</v>
       </c>
       <c r="E13">
-        <v>1.054306512656142</v>
+        <v>1.016202051500977</v>
       </c>
       <c r="F13">
-        <v>1.061390072984828</v>
+        <v>1.019954533496539</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041719514735746</v>
+        <v>1.043518054555752</v>
       </c>
       <c r="J13">
-        <v>1.047248380416672</v>
+        <v>1.027524503499531</v>
       </c>
       <c r="K13">
-        <v>1.045770902934108</v>
+        <v>1.031210161794414</v>
       </c>
       <c r="L13">
-        <v>1.057841684125465</v>
+        <v>1.030982277577568</v>
       </c>
       <c r="M13">
-        <v>1.064899903304209</v>
+        <v>1.034666382453084</v>
       </c>
       <c r="N13">
-        <v>1.048735593237932</v>
+        <v>1.028983706153208</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.040812584144339</v>
+        <v>0.9985555164313906</v>
       </c>
       <c r="D14">
-        <v>1.042307783260684</v>
+        <v>1.017026385588819</v>
       </c>
       <c r="E14">
-        <v>1.054462877535326</v>
+        <v>1.016971173401575</v>
       </c>
       <c r="F14">
-        <v>1.061560246888101</v>
+        <v>1.020785959658719</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041760094871338</v>
+        <v>1.043779647699917</v>
       </c>
       <c r="J14">
-        <v>1.047346427393263</v>
+        <v>1.028024251459655</v>
       </c>
       <c r="K14">
-        <v>1.045855354267669</v>
+        <v>1.031650754645026</v>
       </c>
       <c r="L14">
-        <v>1.057966505357686</v>
+        <v>1.031596540223387</v>
       </c>
       <c r="M14">
-        <v>1.065038729291339</v>
+        <v>1.035342717430249</v>
       </c>
       <c r="N14">
-        <v>1.048833779452476</v>
+        <v>1.029484163812757</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.040910291775539</v>
+        <v>0.9990709169005344</v>
       </c>
       <c r="D15">
-        <v>1.042379435811599</v>
+        <v>1.017390139043969</v>
       </c>
       <c r="E15">
-        <v>1.054559242653558</v>
+        <v>1.017443602400138</v>
       </c>
       <c r="F15">
-        <v>1.061665123779914</v>
+        <v>1.021296656230068</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04178507645348</v>
+        <v>1.043940100804543</v>
       </c>
       <c r="J15">
-        <v>1.047406835872113</v>
+        <v>1.028331074776426</v>
       </c>
       <c r="K15">
-        <v>1.045907382087613</v>
+        <v>1.031921240290584</v>
       </c>
       <c r="L15">
-        <v>1.058043419756506</v>
+        <v>1.031973745108919</v>
       </c>
       <c r="M15">
-        <v>1.065124276480367</v>
+        <v>1.035758060887221</v>
       </c>
       <c r="N15">
-        <v>1.048894273718295</v>
+        <v>1.029791422853832</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.041479210265826</v>
+        <v>1.002044379256086</v>
       </c>
       <c r="D16">
-        <v>1.042796659245448</v>
+        <v>1.019490520800294</v>
       </c>
       <c r="E16">
-        <v>1.055120487885492</v>
+        <v>1.020171586076255</v>
       </c>
       <c r="F16">
-        <v>1.062275965853997</v>
+        <v>1.024245582056034</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04193015626674</v>
+        <v>1.044863123261753</v>
       </c>
       <c r="J16">
-        <v>1.047758415684998</v>
+        <v>1.030100593107983</v>
       </c>
       <c r="K16">
-        <v>1.046210122777383</v>
+        <v>1.033480893137954</v>
       </c>
       <c r="L16">
-        <v>1.058491214809391</v>
+        <v>1.03415030609668</v>
       </c>
       <c r="M16">
-        <v>1.065622379108809</v>
+        <v>1.038155017822137</v>
       </c>
       <c r="N16">
-        <v>1.049246352814841</v>
+        <v>1.031563454104386</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.041836268768814</v>
+        <v>1.003886860651563</v>
       </c>
       <c r="D17">
-        <v>1.043058525109678</v>
+        <v>1.020793534396867</v>
       </c>
       <c r="E17">
-        <v>1.055472856870542</v>
+        <v>1.021864058999898</v>
       </c>
       <c r="F17">
-        <v>1.062659493762119</v>
+        <v>1.026075113318603</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042020875373508</v>
+        <v>1.045432690352219</v>
       </c>
       <c r="J17">
-        <v>1.047978930784152</v>
+        <v>1.031196487632048</v>
       </c>
       <c r="K17">
-        <v>1.046399949491417</v>
+        <v>1.034446542525946</v>
       </c>
       <c r="L17">
-        <v>1.058772209555629</v>
+        <v>1.035499292893317</v>
       </c>
       <c r="M17">
-        <v>1.065934984148245</v>
+        <v>1.03964089261498</v>
       </c>
       <c r="N17">
-        <v>1.049467181070729</v>
+        <v>1.032660904924375</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.042044603416076</v>
+        <v>1.00495358283451</v>
       </c>
       <c r="D18">
-        <v>1.043211321580318</v>
+        <v>1.021548455648927</v>
       </c>
       <c r="E18">
-        <v>1.05567850068746</v>
+        <v>1.022844674662307</v>
       </c>
       <c r="F18">
-        <v>1.062883329402198</v>
+        <v>1.027135137770447</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042073687181805</v>
+        <v>1.045761577967652</v>
       </c>
       <c r="J18">
-        <v>1.048107545397821</v>
+        <v>1.03183074719563</v>
       </c>
       <c r="K18">
-        <v>1.046510645031145</v>
+        <v>1.035005319741735</v>
       </c>
       <c r="L18">
-        <v>1.058936146405316</v>
+        <v>1.036280395636243</v>
       </c>
       <c r="M18">
-        <v>1.066117378072728</v>
+        <v>1.040501363828279</v>
       </c>
       <c r="N18">
-        <v>1.049595978331902</v>
+        <v>1.033296065209289</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.04211565172574</v>
+        <v>1.005315975900467</v>
       </c>
       <c r="D19">
-        <v>1.043263430435792</v>
+        <v>1.021805009647892</v>
       </c>
       <c r="E19">
-        <v>1.055748639029763</v>
+        <v>1.023177939763295</v>
       </c>
       <c r="F19">
-        <v>1.062959673629375</v>
+        <v>1.027495390069592</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042091677137479</v>
+        <v>1.045873160989124</v>
       </c>
       <c r="J19">
-        <v>1.048151398251217</v>
+        <v>1.032046183202756</v>
       </c>
       <c r="K19">
-        <v>1.046548384711181</v>
+        <v>1.035195099389794</v>
       </c>
       <c r="L19">
-        <v>1.058992050937052</v>
+        <v>1.036545771084379</v>
       </c>
       <c r="M19">
-        <v>1.066179579266064</v>
+        <v>1.040793722461779</v>
       </c>
       <c r="N19">
-        <v>1.04963989346138</v>
+        <v>1.033511807160256</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.041797952681059</v>
+        <v>1.003690008482403</v>
       </c>
       <c r="D20">
-        <v>1.043030423728752</v>
+        <v>1.020654264032603</v>
       </c>
       <c r="E20">
-        <v>1.055435039320067</v>
+        <v>1.021683156547362</v>
       </c>
       <c r="F20">
-        <v>1.062618331359517</v>
+        <v>1.025879561526807</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042011152733294</v>
+        <v>1.045371927166961</v>
       </c>
       <c r="J20">
-        <v>1.047955272432938</v>
+        <v>1.031079423829631</v>
       </c>
       <c r="K20">
-        <v>1.046379585684857</v>
+        <v>1.034343402015239</v>
       </c>
       <c r="L20">
-        <v>1.058742057604971</v>
+        <v>1.035355156028093</v>
       </c>
       <c r="M20">
-        <v>1.065901438712898</v>
+        <v>1.039482118513068</v>
       </c>
       <c r="N20">
-        <v>1.049443489121943</v>
+        <v>1.032543674877932</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.04076588954453</v>
+        <v>0.9983087115947921</v>
       </c>
       <c r="D21">
-        <v>1.042273540686078</v>
+        <v>1.016852231450025</v>
       </c>
       <c r="E21">
-        <v>1.054416827065979</v>
+        <v>1.016744989758293</v>
       </c>
       <c r="F21">
-        <v>1.06151012925996</v>
+        <v>1.020541454095122</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041748149443875</v>
+        <v>1.043702766051337</v>
       </c>
       <c r="J21">
-        <v>1.047317555312987</v>
+        <v>1.027877315469113</v>
       </c>
       <c r="K21">
-        <v>1.04583048658508</v>
+        <v>1.03152121539966</v>
       </c>
       <c r="L21">
-        <v>1.057929746964248</v>
+        <v>1.03141591905181</v>
       </c>
       <c r="M21">
-        <v>1.064997846013547</v>
+        <v>1.035143839722141</v>
       </c>
       <c r="N21">
-        <v>1.048804866370534</v>
+        <v>1.029337019156255</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.040117614943538</v>
+        <v>0.9948488601727615</v>
       </c>
       <c r="D22">
-        <v>1.041798159544283</v>
+        <v>1.014413102900857</v>
       </c>
       <c r="E22">
-        <v>1.05377766394613</v>
+        <v>1.013577188990429</v>
       </c>
       <c r="F22">
-        <v>1.060814542189147</v>
+        <v>1.017116993528335</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041581863679684</v>
+        <v>1.042621889949308</v>
       </c>
       <c r="J22">
-        <v>1.046916530978973</v>
+        <v>1.025816818720839</v>
       </c>
       <c r="K22">
-        <v>1.045485008137071</v>
+        <v>1.029704340530063</v>
       </c>
       <c r="L22">
-        <v>1.057419359788415</v>
+        <v>1.028884393563756</v>
       </c>
       <c r="M22">
-        <v>1.064430240717779</v>
+        <v>1.032356818623321</v>
       </c>
       <c r="N22">
-        <v>1.048403272535968</v>
+        <v>1.027273596266256</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.040461218010945</v>
+        <v>0.9966904708934979</v>
       </c>
       <c r="D23">
-        <v>1.042050120087814</v>
+        <v>1.015710875155875</v>
       </c>
       <c r="E23">
-        <v>1.054116398554858</v>
+        <v>1.015262658431551</v>
       </c>
       <c r="F23">
-        <v>1.061183173395749</v>
+        <v>1.018939035444175</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041670102420178</v>
+        <v>1.043197930387651</v>
       </c>
       <c r="J23">
-        <v>1.0471291275165</v>
+        <v>1.026913729715437</v>
       </c>
       <c r="K23">
-        <v>1.045668175036632</v>
+        <v>1.030671634606665</v>
       </c>
       <c r="L23">
-        <v>1.057689892613327</v>
+        <v>1.030231749636721</v>
       </c>
       <c r="M23">
-        <v>1.064731089385942</v>
+        <v>1.033840069806108</v>
       </c>
       <c r="N23">
-        <v>1.048616170984963</v>
+        <v>1.028372065000284</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.041815265860375</v>
+        <v>1.003778982073227</v>
       </c>
       <c r="D24">
-        <v>1.043043121364823</v>
+        <v>1.020717210062594</v>
       </c>
       <c r="E24">
-        <v>1.055452127094444</v>
+        <v>1.021764918859263</v>
       </c>
       <c r="F24">
-        <v>1.062636930474976</v>
+        <v>1.02596794489393</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042015546294553</v>
+        <v>1.045399393714793</v>
       </c>
       <c r="J24">
-        <v>1.047965962648657</v>
+        <v>1.031132335215705</v>
       </c>
       <c r="K24">
-        <v>1.046388787296548</v>
+        <v>1.034390020562538</v>
       </c>
       <c r="L24">
-        <v>1.058755681858256</v>
+        <v>1.035420302974786</v>
       </c>
       <c r="M24">
-        <v>1.065916596276134</v>
+        <v>1.039553880864636</v>
       </c>
       <c r="N24">
-        <v>1.049454194518994</v>
+        <v>1.032596661404243</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.043389244676843</v>
+        <v>1.011694325746728</v>
       </c>
       <c r="D25">
-        <v>1.044197578448414</v>
+        <v>1.026327701533862</v>
       </c>
       <c r="E25">
-        <v>1.057006591359434</v>
+        <v>1.029054131037748</v>
       </c>
       <c r="F25">
-        <v>1.064329040959822</v>
+        <v>1.033847480969729</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042412367831178</v>
+        <v>1.047823998610108</v>
       </c>
       <c r="J25">
-        <v>1.048936741400266</v>
+        <v>1.035834438256636</v>
       </c>
       <c r="K25">
-        <v>1.047223948306188</v>
+        <v>1.03853061288769</v>
       </c>
       <c r="L25">
-        <v>1.059993932567644</v>
+        <v>1.04121756047414</v>
       </c>
       <c r="M25">
-        <v>1.06729453053028</v>
+        <v>1.045942135960575</v>
       </c>
       <c r="N25">
-        <v>1.05042635188778</v>
+        <v>1.037305441970831</v>
       </c>
     </row>
   </sheetData>
